--- a/documents/details-for-employee-portal.xlsx
+++ b/documents/details-for-employee-portal.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB393D-5589-4553-A07A-868D38D38EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0B2060-D996-42A9-9E8C-0FCBB7F0CC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gauresh Chari</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{4F255F33-30D7-4B57-965F-A9DDAC646E19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gauresh Chari:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Refer Sheet 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="308">
   <si>
     <t>emp_code</t>
   </si>
@@ -802,13 +837,309 @@
   </si>
   <si>
     <t>Suresh-2501</t>
+  </si>
+  <si>
+    <t>SPI000C</t>
+  </si>
+  <si>
+    <t>Sonal Saisharma</t>
+  </si>
+  <si>
+    <t>Trainee QC Inspector</t>
+  </si>
+  <si>
+    <t>S11-sharma</t>
+  </si>
+  <si>
+    <t>Helper / Assistant Helper</t>
+  </si>
+  <si>
+    <t>Material Handler</t>
+  </si>
+  <si>
+    <t>Packing Helper</t>
+  </si>
+  <si>
+    <t>Loading/Unloading Worker</t>
+  </si>
+  <si>
+    <t>Housekeeping / Utility Worker</t>
+  </si>
+  <si>
+    <t>Level 2 — Skilled Operators</t>
+  </si>
+  <si>
+    <t>Machine Operator</t>
+  </si>
+  <si>
+    <t>Line Operator</t>
+  </si>
+  <si>
+    <t>Process Operator</t>
+  </si>
+  <si>
+    <t>Quality Checker (Basic)</t>
+  </si>
+  <si>
+    <t>Inspection Line Operator</t>
+  </si>
+  <si>
+    <t>Level 3 — Technical &amp; Support Roles</t>
+  </si>
+  <si>
+    <t>Technician (Mechanical / Electrical / Instrumentation)</t>
+  </si>
+  <si>
+    <t>Senior Operator</t>
+  </si>
+  <si>
+    <t>Shift In-Charge (Junior)</t>
+  </si>
+  <si>
+    <t>Quality Inspector / QC Technician</t>
+  </si>
+  <si>
+    <t>Maintenance Technician</t>
+  </si>
+  <si>
+    <t>Warehouse Supervisor (Junior)</t>
+  </si>
+  <si>
+    <t>Production Coordinator</t>
+  </si>
+  <si>
+    <t>Level 4 — Supervisory / Mid-Management</t>
+  </si>
+  <si>
+    <t>Shift Supervisor / Shift Engineer</t>
+  </si>
+  <si>
+    <t>Production Supervisor</t>
+  </si>
+  <si>
+    <t>Quality Supervisor</t>
+  </si>
+  <si>
+    <t>Maintenance Supervisor</t>
+  </si>
+  <si>
+    <t>Warehouse / Dispatch Supervisor</t>
+  </si>
+  <si>
+    <t>Level 5 — Senior Management</t>
+  </si>
+  <si>
+    <t>Department Manager / HOD (Production / Quality / Maintenance / HR / Warehouse)</t>
+  </si>
+  <si>
+    <t>Plant Engineer / Production Manager</t>
+  </si>
+  <si>
+    <t>DGM / AGM (Operations)</t>
+  </si>
+  <si>
+    <t>GM / PGM (Plant General Manager)</t>
+  </si>
+  <si>
+    <t>🏭 Summary Ladder (Simple Chain)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">➡️ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Low skill entry roles; basic manual work; supervised.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Extruder Operator / Lamination Operator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (industry-specific)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">➡️ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trained workers who run machines, maintain basic process control.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">➡️ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Technical responsibilities, solving machine issues, minor leadership roles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">➡️ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Managing teams, overseeing area/department performance, solving daily problems.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">➡️ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leadership roles managing entire plant operations, budgets, performance, safety, quality, compliance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Level 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Helper →</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Level 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Operator →</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Level 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Technician / Inspector →</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Level 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Supervisor / Engineer →</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Level 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Manager → GM → PGM</t>
+    </r>
+  </si>
+  <si>
+    <t>emp_level</t>
+  </si>
+  <si>
+    <t>SPI000D</t>
+  </si>
+  <si>
+    <t>Sam-2025</t>
+  </si>
+  <si>
+    <t>Samiksha</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Level 1 — Foundation</t>
+  </si>
+  <si>
+    <t>Safety Officer /  Executive / Process Engineer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,13 +1159,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -864,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,6 +1272,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,11 +1576,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,1293 +1588,1638 @@
     <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="6" t="str">
-        <f t="shared" ref="E2:E33" si="0">LOWER(A2)&amp;"@swanson.co.in"</f>
+      <c r="F3" s="6" t="str">
+        <f t="shared" ref="F3:F34" si="0">LOWER(A3)&amp;"@swanson.co.in"</f>
         <v>spi0018@swanson.co.in</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="F4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0034@swanson.co.in</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0035@swanson.co.in</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0062@swanson.co.in</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0067@swanson.co.in</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0080@swanson.co.in</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0084@swanson.co.in</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0092@swanson.co.in</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="6" t="str">
+      <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0098@swanson.co.in</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="6" t="str">
+      <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0102@swanson.co.in</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="6" t="str">
+      <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0103@swanson.co.in</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="6" t="str">
+      <c r="F14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0108@swanson.co.in</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="6" t="str">
+      <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0114@swanson.co.in</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="6" t="str">
+      <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0115@swanson.co.in</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="6" t="str">
+      <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0121@swanson.co.in</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0122@swanson.co.in</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="6" t="str">
+      <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0129@swanson.co.in</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0130@swanson.co.in</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0132@swanson.co.in</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0140@swanson.co.in</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="6" t="str">
+      <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0141@swanson.co.in</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="6" t="str">
+      <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0152@swanson.co.in</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="F25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0153@swanson.co.in</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="F26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0154@swanson.co.in</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="6" t="str">
+      <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0162@swanson.co.in</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="6" t="str">
+      <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0164@swanson.co.in</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="6" t="str">
+      <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0166@swanson.co.in</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="6" t="str">
+      <c r="F30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0167@swanson.co.in</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="6" t="str">
+      <c r="F31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0176@swanson.co.in</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="6" t="str">
+      <c r="F32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0177@swanson.co.in</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="6" t="str">
+      <c r="F33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0178@swanson.co.in</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="6" t="str">
+      <c r="F34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>spi0179@swanson.co.in</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="6" t="str">
-        <f t="shared" ref="E34:E60" si="1">LOWER(A34)&amp;"@swanson.co.in"</f>
+      <c r="F35" s="6" t="str">
+        <f t="shared" ref="F35:F61" si="1">LOWER(A35)&amp;"@swanson.co.in"</f>
         <v>spi0180@swanson.co.in</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="6" t="str">
+      <c r="F36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0182@swanson.co.in</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="6" t="str">
+      <c r="F37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0183@swanson.co.in</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="6" t="str">
+      <c r="F38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0184@swanson.co.in</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="6" t="str">
+      <c r="F39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0185@swanson.co.in</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="6" t="str">
+      <c r="F40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0195@swanson.co.in</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="14"/>
+      <c r="E41" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="6" t="str">
+      <c r="F41" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0200@swanson.co.in</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="14"/>
+      <c r="E42" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="6" t="str">
+      <c r="F42" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0204@swanson.co.in</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="6" t="str">
+      <c r="F43" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0205@swanson.co.in</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" s="14"/>
+      <c r="E44" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="6" t="str">
+      <c r="F44" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0206@swanson.co.in</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="6" t="str">
+      <c r="F45" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0207@swanson.co.in</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="6" t="str">
+      <c r="F46" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0208@swanson.co.in</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="14"/>
+      <c r="E47" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="6" t="str">
+      <c r="F47" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0209@swanson.co.in</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="14"/>
+      <c r="E48" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="6" t="str">
+      <c r="F48" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0210@swanson.co.in</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="14"/>
+      <c r="E49" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="6" t="str">
+      <c r="F49" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0211@swanson.co.in</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="14"/>
+      <c r="E50" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="6" t="str">
+      <c r="F50" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0214@swanson.co.in</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="14"/>
+      <c r="E51" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="6" t="str">
+      <c r="F51" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0215@swanson.co.in</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="6" t="str">
+      <c r="F52" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0216@swanson.co.in</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="6" t="str">
+      <c r="F53" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0217@swanson.co.in</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="6" t="str">
+      <c r="F54" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0218@swanson.co.in</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="6" t="str">
+      <c r="F55" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0219@swanson.co.in</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="6" t="str">
+      <c r="F56" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0220@swanson.co.in</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="6" t="str">
+      <c r="F57" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0221@swanson.co.in</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="6" t="str">
+      <c r="F58" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0222@swanson.co.in</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="6" t="str">
+      <c r="F59" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0224@swanson.co.in</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="6" t="str">
+      <c r="F60" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi0225@swanson.co.in</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="14"/>
+      <c r="E61" s="9">
         <v>45658</v>
       </c>
-      <c r="E60" s="6" t="str">
+      <c r="F61" s="6" t="str">
         <f t="shared" si="1"/>
         <v>spi000a@swanson.co.in</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="14"/>
+      <c r="E62" s="9">
         <v>45658</v>
       </c>
-      <c r="E61" s="6" t="str">
-        <f t="shared" ref="E61" si="2">LOWER(A61)&amp;"@swanson.co.in"</f>
+      <c r="F62" s="6" t="str">
+        <f t="shared" ref="F62:F63" si="2">LOWER(A62)&amp;"@swanson.co.in"</f>
         <v>spi000b@swanson.co.in</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>spi000c@swanson.co.in</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="9">
+        <v>45969</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f t="shared" ref="F64" si="3">LOWER(A64)&amp;"@swanson.co.in"</f>
+        <v>spi000d@swanson.co.in</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37F2BE7-2631-4CA3-AA6A-A230EA0432BE}">
+  <dimension ref="A3:J52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="C30" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="C39" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C46" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>